--- a/RCWA v3.2.1/input/layers.xlsx
+++ b/RCWA v3.2.1/input/layers.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="Wedge" sheetId="1" state="visible" r:id="rId2"/>
@@ -19,9 +19,13 @@
     <sheet name="OxideTexturedUni" sheetId="9" state="visible" r:id="rId10"/>
     <sheet name="OxideDoubleTextured" sheetId="10" state="visible" r:id="rId11"/>
     <sheet name="OxidePlanar" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="GraphicsTest" sheetId="12" state="visible" r:id="rId13"/>
-    <sheet name="GraphicsTest2" sheetId="13" state="visible" r:id="rId14"/>
-    <sheet name="Spacer" sheetId="14" state="visible" r:id="rId15"/>
+    <sheet name="OxideTextured" sheetId="12" state="visible" r:id="rId13"/>
+    <sheet name="GraphicsTest" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="GraphicsTest2" sheetId="14" state="visible" r:id="rId15"/>
+    <sheet name="Spacer" sheetId="15" state="visible" r:id="rId16"/>
+    <sheet name="StructureTom0" sheetId="16" state="visible" r:id="rId17"/>
+    <sheet name="StructureTom1" sheetId="17" state="visible" r:id="rId18"/>
+    <sheet name="StructureTom2" sheetId="18" state="visible" r:id="rId19"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -33,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="27">
   <si>
     <t xml:space="preserve">material</t>
   </si>
@@ -108,6 +112,12 @@
   </si>
   <si>
     <t xml:space="preserve">GaAs_25meV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GaAs_15meV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GaP, Air</t>
   </si>
 </sst>
 </file>
@@ -234,11 +244,11 @@
   </sheetPr>
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.83984375" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.9765625" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.95"/>
   </cols>
@@ -371,11 +381,11 @@
   </sheetPr>
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="167" zoomScaleNormal="167" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.83984375" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.9765625" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16.31"/>
   </cols>
@@ -578,13 +588,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="220" zoomScaleNormal="220" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H7" activeCellId="0" sqref="H7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H9" activeCellId="0" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.83984375" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.9765625" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -664,107 +674,159 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>14</v>
       </c>
       <c r="B4" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H4" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="1" t="n">
         <v>300</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="H4" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+      <c r="C5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H5" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H6" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="1" t="n">
-        <v>250</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="H5" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+      <c r="B7" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H7" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="H6" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
+      <c r="B8" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H8" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="1" t="n">
+      <c r="B9" s="1" t="n">
         <v>3000</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="1" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="H7" s="2" t="n">
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H9" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -784,15 +846,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H9" activeCellId="0" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.83984375" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.74"/>
+  </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -818,7 +883,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -844,7 +909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -870,12 +935,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>14</v>
       </c>
       <c r="B4" s="1" t="n">
-        <v>150</v>
+        <v>25</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>9</v>
@@ -896,12 +961,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B5" s="1" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -922,12 +987,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>70</v>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>100</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>9</v>
@@ -948,18 +1013,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B7" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>9</v>
+        <v>108</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E7" s="2" t="n">
         <v>0</v>
@@ -974,18 +1039,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B8" s="1" t="n">
-        <v>250</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>9</v>
+        <v>100</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E8" s="2" t="n">
         <v>0</v>
@@ -1000,12 +1065,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B9" s="1" t="n">
-        <v>70</v>
+        <v>3000</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>9</v>
@@ -1023,42 +1088,16 @@
         <v>0.005</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>3000</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" s="1" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="H10" s="2" t="n">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -1068,13 +1107,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.83984375" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.9765625" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1159,7 +1198,7 @@
         <v>8</v>
       </c>
       <c r="B4" s="1" t="n">
-        <v>20</v>
+        <v>150</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>9</v>
@@ -1182,10 +1221,10 @@
     </row>
     <row r="5" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" s="1" t="n">
-        <v>20</v>
+        <v>250</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -1208,10 +1247,10 @@
     </row>
     <row r="6" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B6" s="1" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>9</v>
@@ -1234,10 +1273,10 @@
     </row>
     <row r="7" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B7" s="1" t="n">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>9</v>
@@ -1260,10 +1299,10 @@
     </row>
     <row r="8" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B8" s="1" t="n">
-        <v>60</v>
+        <v>250</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>9</v>
@@ -1289,7 +1328,7 @@
         <v>17</v>
       </c>
       <c r="B9" s="1" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>9</v>
@@ -1312,10 +1351,10 @@
     </row>
     <row r="10" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B10" s="1" t="n">
-        <v>80</v>
+        <v>3000</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>9</v>
@@ -1333,110 +1372,6 @@
         <v>0.005</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" s="1" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="H11" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" s="1" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="H12" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" s="1" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="H13" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="1" t="n">
-        <v>3000</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" s="1" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="H14" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1456,13 +1391,401 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.9765625" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H2" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H3" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H4" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H5" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H6" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H7" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H8" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H9" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H10" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H11" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H12" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H13" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>3000</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H14" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1593,6 +1916,576 @@
       <c r="H5" s="0" t="n">
         <v>1</v>
       </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>500</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H2" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H3" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H4" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H5" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>3000</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H6" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="2"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>500</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H2" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H3" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H4" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H5" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>3000</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H6" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="2"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>500</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H2" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H3" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H4" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H5" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>3000</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H6" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="2"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1612,11 +2505,11 @@
   </sheetPr>
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="141" zoomScaleNormal="141" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.84765625" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.9921875" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="20.83"/>
   </cols>
@@ -1878,11 +2771,11 @@
   </sheetPr>
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.84765625" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.9921875" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2146,11 +3039,11 @@
   </sheetPr>
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.82421875" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.95703125" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16"/>
   </cols>
@@ -2407,11 +3300,11 @@
   </sheetPr>
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.82421875" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.95703125" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2665,11 +3558,11 @@
   </sheetPr>
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.82421875" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.95703125" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="23.83"/>
   </cols>
@@ -2926,11 +3819,11 @@
   </sheetPr>
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H9" activeCellId="0" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.84"/>
   </cols>
@@ -3187,11 +4080,11 @@
   </sheetPr>
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.83984375" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.9765625" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.59"/>
   </cols>
@@ -3396,11 +4289,11 @@
   </sheetPr>
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="167" zoomScaleNormal="167" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.83984375" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.9765625" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="18.39"/>
   </cols>

--- a/RCWA v3.2.1/input/layers.xlsx
+++ b/RCWA v3.2.1/input/layers.xlsx
@@ -5,27 +5,39 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="17"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="29"/>
   </bookViews>
   <sheets>
-    <sheet name="Wedge" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Sheet3" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="Sheet4" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="Sheet5" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="Sheet6" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="Sheet7" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="OxideTexturedUni" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="OxideDoubleTextured" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="OxidePlanar" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="OxideTextured" sheetId="12" state="visible" r:id="rId13"/>
-    <sheet name="GraphicsTest" sheetId="13" state="visible" r:id="rId14"/>
-    <sheet name="GraphicsTest2" sheetId="14" state="visible" r:id="rId15"/>
-    <sheet name="Spacer" sheetId="15" state="visible" r:id="rId16"/>
-    <sheet name="StructureTom0" sheetId="16" state="visible" r:id="rId17"/>
-    <sheet name="StructureTom1" sheetId="17" state="visible" r:id="rId18"/>
-    <sheet name="StructureTom2" sheetId="18" state="visible" r:id="rId19"/>
+    <sheet name="Pres3" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Wedge" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Sheet3" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="Sheet4" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="Sheet5" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="Sheet6" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="Sheet7" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="OxideTexturedUni" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="OxideDoubleTextured" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="OxidePlanar" sheetId="12" state="visible" r:id="rId13"/>
+    <sheet name="OxideTextured" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="GraphicsTest" sheetId="14" state="visible" r:id="rId15"/>
+    <sheet name="GraphicsTest2" sheetId="15" state="visible" r:id="rId16"/>
+    <sheet name="Spacer" sheetId="16" state="visible" r:id="rId17"/>
+    <sheet name="StructureTom0" sheetId="17" state="visible" r:id="rId18"/>
+    <sheet name="StructureTom1" sheetId="18" state="visible" r:id="rId19"/>
+    <sheet name="StructureTom2" sheetId="19" state="visible" r:id="rId20"/>
+    <sheet name="Presentation1" sheetId="20" state="visible" r:id="rId21"/>
+    <sheet name="Presentation2" sheetId="21" state="visible" r:id="rId22"/>
+    <sheet name="Presentation3" sheetId="22" state="visible" r:id="rId23"/>
+    <sheet name="Presentation4" sheetId="23" state="visible" r:id="rId24"/>
+    <sheet name="Pres2" sheetId="24" state="visible" r:id="rId25"/>
+    <sheet name="Standard" sheetId="25" state="visible" r:id="rId26"/>
+    <sheet name="Standard2" sheetId="26" state="visible" r:id="rId27"/>
+    <sheet name="Standard3" sheetId="27" state="visible" r:id="rId28"/>
+    <sheet name="PresGrating" sheetId="28" state="visible" r:id="rId29"/>
+    <sheet name="Hirst" sheetId="29" state="visible" r:id="rId30"/>
+    <sheet name="Sheet30" sheetId="30" state="visible" r:id="rId31"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -37,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="31">
   <si>
     <t xml:space="preserve">material</t>
   </si>
@@ -69,10 +81,19 @@
     <t xml:space="preserve">u</t>
   </si>
   <si>
-    <t xml:space="preserve">GaAs, Al03GaAs</t>
+    <t xml:space="preserve">GaAs, Oxide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oxide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oxide, Ag</t>
   </si>
   <si>
     <t xml:space="preserve">Ag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GaAs, Al03GaAs</t>
   </si>
   <si>
     <t xml:space="preserve">MgF2</t>
@@ -90,16 +111,10 @@
     <t xml:space="preserve">Al03GaAs</t>
   </si>
   <si>
-    <t xml:space="preserve">Oxide</t>
-  </si>
-  <si>
     <t xml:space="preserve">Al03GaAs, Ag</t>
   </si>
   <si>
     <t xml:space="preserve">Al03GaAs, Oxide</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oxide, Ag</t>
   </si>
   <si>
     <t xml:space="preserve">Al03GaAs, Oxide, Ag</t>
@@ -118,6 +133,15 @@
   </si>
   <si>
     <t xml:space="preserve">GaP, Air</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GaAs, Ag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Air, GaAs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oxide, Al03GaAs</t>
   </si>
 </sst>
 </file>
@@ -242,18 +266,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.9765625" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.95"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="12.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -309,14 +330,14 @@
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="C3" s="1" t="n">
+      <c r="B3" s="0" t="n">
+        <v>145</v>
+      </c>
+      <c r="C3" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="E3" s="2" t="n">
         <v>0</v>
@@ -328,48 +349,94 @@
         <v>0.005</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="1" t="n">
+      <c r="B4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H4" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>145</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H5" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="1" t="n">
         <v>227.5</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="H4" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="C6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H6" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -382,12 +449,12 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.9765625" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.43359375" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="25.56"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -418,7 +485,7 @@
     </row>
     <row r="2" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>94</v>
@@ -444,7 +511,7 @@
     </row>
     <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>44</v>
@@ -470,7 +537,7 @@
     </row>
     <row r="4" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>300</v>
@@ -496,16 +563,16 @@
     </row>
     <row r="5" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B5" s="1" t="n">
-        <v>250</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>1</v>
+        <v>300</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="E5" s="2" t="n">
         <v>0</v>
@@ -520,18 +587,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B6" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>2</v>
+        <v>3000</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="E6" s="2" t="n">
         <v>0</v>
@@ -546,32 +613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>3000</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="1" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="H7" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -588,13 +630,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H9" activeCellId="0" sqref="H9"/>
+      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.9765625" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.43359375" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16.31"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -624,7 +669,7 @@
     </row>
     <row r="2" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>94</v>
@@ -650,7 +695,7 @@
     </row>
     <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>44</v>
@@ -674,12 +719,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>14</v>
+    <row r="4" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="B4" s="1" t="n">
-        <v>25</v>
+        <v>300</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>9</v>
@@ -700,18 +745,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B5" s="1" t="n">
-        <v>300</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>9</v>
+        <v>250</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="E5" s="2" t="n">
         <v>0</v>
@@ -726,18 +771,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>9</v>
+    <row r="6" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="E6" s="2" t="n">
         <v>0</v>
@@ -752,12 +797,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B7" s="1" t="n">
-        <v>108</v>
+        <v>3000</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>9</v>
@@ -775,58 +820,6 @@
         <v>0.005</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" s="1" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="H8" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>3000</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" s="1" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="H9" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -852,7 +845,265 @@
       <selection pane="topLeft" activeCell="H9" activeCellId="0" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.43359375" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H2" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H3" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H4" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>300</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H5" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H6" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H7" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H8" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>3000</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H9" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H9" activeCellId="0" sqref="H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.74"/>
   </cols>
@@ -885,7 +1136,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>94</v>
@@ -911,7 +1162,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>44</v>
@@ -937,7 +1188,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>25</v>
@@ -963,7 +1214,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>300</v>
@@ -989,7 +1240,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>100</v>
@@ -1015,7 +1266,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>108</v>
@@ -1041,7 +1292,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>100</v>
@@ -1067,7 +1318,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>3000</v>
@@ -1102,7 +1353,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1113,7 +1364,7 @@
       <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.9765625" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.43359375" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1143,7 +1394,7 @@
     </row>
     <row r="2" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>94</v>
@@ -1169,7 +1420,7 @@
     </row>
     <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>44</v>
@@ -1221,7 +1472,7 @@
     </row>
     <row r="5" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>250</v>
@@ -1247,7 +1498,7 @@
     </row>
     <row r="6" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>70</v>
@@ -1299,7 +1550,7 @@
     </row>
     <row r="8" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>250</v>
@@ -1325,7 +1576,7 @@
     </row>
     <row r="9" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>70</v>
@@ -1351,7 +1602,7 @@
     </row>
     <row r="10" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10" s="1" t="n">
         <v>3000</v>
@@ -1372,394 +1623,6 @@
         <v>0.005</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:H14"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10.9765625" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData>
-    <row r="1" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="H2" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="H3" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="H4" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="H5" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="H6" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="1" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="H7" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" s="1" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="H8" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" s="1" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="H9" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" s="1" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="H10" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" s="1" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="H11" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" s="1" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="H12" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" s="1" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="H13" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="1" t="n">
-        <v>3000</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" s="1" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="H14" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1779,15 +1642,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
+      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.43359375" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1813,117 +1676,351 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H2" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H3" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="0" t="n">
-        <v>300</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" s="0" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="H2" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" s="0" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="H3" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="B4" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B4" s="0" t="n">
-        <v>145</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" s="0" t="n">
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H4" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H5" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="E4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" s="0" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="H4" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="C6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H6" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="0" t="n">
-        <v>227.5</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" s="0" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="H5" s="0" t="n">
+      <c r="B7" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H7" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H8" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H9" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H10" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H11" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H12" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H13" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>3000</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H14" s="2" t="n">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader/>
+    <oddFooter/>
   </headerFooter>
 </worksheet>
 </file>
@@ -1933,13 +2030,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
+      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.31640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1968,144 +2065,108 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="1" t="n">
-        <v>500</v>
-      </c>
-      <c r="C2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="E2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="H2" s="2" t="n">
+      <c r="A2" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H2" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="H3" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H3" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="H4" s="2" t="n">
+      <c r="A4" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>145</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H4" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="H5" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>3000</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="H6" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="2"/>
+        <v>227.5</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2126,10 +2187,10 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.01953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2159,13 +2220,13 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>500</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" s="2" t="n">
         <v>40</v>
@@ -2185,7 +2246,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>50</v>
@@ -2211,7 +2272,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>50</v>
@@ -2237,7 +2298,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>100</v>
@@ -2315,11 +2376,11 @@
   </sheetPr>
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.01953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2349,13 +2410,13 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>500</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" s="2" t="n">
         <v>40</v>
@@ -2375,7 +2436,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>50</v>
@@ -2401,7 +2462,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>50</v>
@@ -2427,7 +2488,197 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H5" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>3000</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H6" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="2"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H6" activeCellId="0" sqref="H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.01953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>500</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H2" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H3" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H4" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>18</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>100</v>
@@ -2503,256 +2754,127 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.9921875" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.43359375" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="20.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.95"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
+    <row r="1" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-    </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="3" t="n">
-        <v>94</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" s="3" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="H2" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>227.5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H2" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H3" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="3" t="n">
-        <v>44</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" s="3" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="H3" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="3" t="n">
-        <v>25</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" s="3" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="H4" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="3" t="n">
-        <v>300</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" s="3" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="H5" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="3" t="n">
-        <v>100</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" s="3" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="3" t="n">
-        <v>305</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="3" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="3" t="n">
-        <v>70</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="3" t="n">
-        <v>3000</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" s="3" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5"/>
-    </row>
+      <c r="B4" s="1" t="n">
+        <v>227.5</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H4" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2764,262 +2886,1725 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>94</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H2" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H3" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>280</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H4" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>300</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H5" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>94</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H2" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H3" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>227.5</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H4" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>145</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H5" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>227.5</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H6" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F23" activeCellId="0" sqref="F23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>94</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H2" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H3" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>227.5</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H4" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>145</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H5" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>227.5</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H6" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>94</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H2" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H3" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>300</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H4" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>145</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H5" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>227.5</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H6" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="X1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>300</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H2" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>145</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H3" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>227.5</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H4" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>300</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H2" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>300</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H2" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>300</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H3" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E16" activeCellId="0" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>94</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H2" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H3" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>300</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H4" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>3000</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H5" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>227.5</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H6" activeCellId="0" sqref="H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.67"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H2" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H3" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H4" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H5" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H6" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>300</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H7" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
+      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.9921875" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.48828125" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="20.83"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="1" t="n">
+      <c r="A2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="3" t="n">
         <v>94</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="H2" s="2" t="n">
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="3" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H2" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="3" t="n">
+        <v>44</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="3" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H3" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="3" t="n">
+        <v>25</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H4" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="3" t="n">
+        <v>300</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="3" t="n">
+        <v>100</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="3" t="n">
+        <v>305</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H7" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="3" t="n">
+        <v>70</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H8" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="H3" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="H4" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>300</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="H5" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="H6" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="1" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="H7" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" s="2" t="n">
-        <v>60</v>
-      </c>
-      <c r="E8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" s="1" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="H8" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="1" t="n">
+      <c r="B9" s="3" t="n">
         <v>3000</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" s="1" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="H9" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="4"/>
+      <c r="C9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H9" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="5"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -3032,23 +4617,128 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H2" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H3" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="2"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
+      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.95703125" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="13.48828125" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3074,9 +4764,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>94</v>
@@ -3100,9 +4790,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>44</v>
@@ -3126,9 +4816,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>25</v>
@@ -3152,7 +4842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -3178,9 +4868,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>100</v>
@@ -3204,12 +4894,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B7" s="1" t="n">
-        <v>71</v>
+        <v>193</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>9</v>
@@ -3230,12 +4920,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B8" s="1" t="n">
-        <v>229</v>
+        <v>107</v>
       </c>
       <c r="C8" s="1" t="n">
         <v>1</v>
@@ -3256,9 +4946,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>3000</v>
@@ -3281,6 +4971,16 @@
       <c r="H9" s="2" t="n">
         <v>1</v>
       </c>
+    </row>
+    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="4"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -3301,10 +5001,13 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
+      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.95703125" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -3334,7 +5037,7 @@
     </row>
     <row r="2" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>94</v>
@@ -3360,7 +5063,7 @@
     </row>
     <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>44</v>
@@ -3386,7 +5089,7 @@
     </row>
     <row r="4" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>25</v>
@@ -3438,7 +5141,7 @@
     </row>
     <row r="6" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>100</v>
@@ -3464,10 +5167,10 @@
     </row>
     <row r="7" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B7" s="1" t="n">
-        <v>228</v>
+        <v>71</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>9</v>
@@ -3490,13 +5193,13 @@
     </row>
     <row r="8" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B8" s="1" t="n">
-        <v>72</v>
+        <v>229</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" s="2" t="n">
         <v>60</v>
@@ -3516,7 +5219,7 @@
     </row>
     <row r="9" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>3000</v>
@@ -3562,10 +5265,7 @@
       <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.95703125" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="23.83"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -3595,7 +5295,7 @@
     </row>
     <row r="2" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>94</v>
@@ -3621,7 +5321,7 @@
     </row>
     <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>44</v>
@@ -3647,7 +5347,7 @@
     </row>
     <row r="4" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>25</v>
@@ -3699,7 +5399,7 @@
     </row>
     <row r="6" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>100</v>
@@ -3725,10 +5425,10 @@
     </row>
     <row r="7" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B7" s="1" t="n">
-        <v>130</v>
+        <v>228</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>9</v>
@@ -3751,13 +5451,13 @@
     </row>
     <row r="8" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B8" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>22</v>
+        <v>72</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="D8" s="2" t="n">
         <v>60</v>
@@ -3777,7 +5477,7 @@
     </row>
     <row r="9" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>3000</v>
@@ -3820,10 +5520,271 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="23.83"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H2" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H3" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H4" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>300</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H5" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H6" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H7" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H8" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>3000</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H9" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H9" activeCellId="0" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.30859375" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.84"/>
   </cols>
@@ -3856,7 +5817,7 @@
     </row>
     <row r="2" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>94</v>
@@ -3882,7 +5843,7 @@
     </row>
     <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>44</v>
@@ -3908,7 +5869,7 @@
     </row>
     <row r="4" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>25</v>
@@ -3960,7 +5921,7 @@
     </row>
     <row r="6" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>100</v>
@@ -3986,7 +5947,7 @@
     </row>
     <row r="7" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>120</v>
@@ -4012,13 +5973,13 @@
     </row>
     <row r="8" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>180</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" s="2" t="n">
         <v>60</v>
@@ -4038,7 +5999,7 @@
     </row>
     <row r="9" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>3000</v>
@@ -4073,7 +6034,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -4084,7 +6045,7 @@
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.9765625" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.43359375" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.59"/>
   </cols>
@@ -4117,7 +6078,7 @@
     </row>
     <row r="2" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>94</v>
@@ -4143,7 +6104,7 @@
     </row>
     <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>44</v>
@@ -4195,7 +6156,7 @@
     </row>
     <row r="5" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>230</v>
@@ -4221,7 +6182,7 @@
     </row>
     <row r="6" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>1500</v>
@@ -4247,7 +6208,7 @@
     </row>
     <row r="7" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>3000</v>
@@ -4271,190 +6232,6 @@
         <v>1</v>
       </c>
     </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:H7"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10.9765625" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="18.39"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="H2" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="H3" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="1" t="n">
-        <v>300</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="H4" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>300</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="2" t="n">
-        <v>80</v>
-      </c>
-      <c r="E5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="H5" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>3000</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="H6" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
